--- a/15N_experiment/15N_branches/applied_15N_per_length_and_by_surface.xlsx
+++ b/15N_experiment/15N_branches/applied_15N_per_length_and_by_surface.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>1st application</t>
   </si>
@@ -44,14 +44,107 @@
     <t>total 15N in mg</t>
   </si>
   <si>
-    <t>per cm</t>
+    <t>per cm (total length = 20.99 m)</t>
+  </si>
+  <si>
+    <t>compartment</t>
+  </si>
+  <si>
+    <t>N15.rec</t>
+  </si>
+  <si>
+    <t>nl</t>
+  </si>
+  <si>
+    <t>nt</t>
+  </si>
+  <si>
+    <t>ol</t>
+  </si>
+  <si>
+    <t>ot</t>
+  </si>
+  <si>
+    <t>richardizzato</t>
+  </si>
+  <si>
+    <t>Needles</t>
+  </si>
+  <si>
+    <t>Twigs</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Daniele</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>δ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>N rec (%)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="173" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,19 +168,77 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF555555"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDFDFD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCFD4D8"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCFD4D8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCFD4D8"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -96,10 +247,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E9" sqref="E9:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,14 +570,16 @@
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -414,8 +595,17 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10.861000000000001</v>
       </c>
@@ -426,18 +616,48 @@
       <c r="D3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1.4172549999999999</v>
+      </c>
+      <c r="K3" s="4">
+        <f>J3*(54/$D$6)*1000</f>
+        <v>1.5961940007662041</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5.4953000000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="8">
+        <v>4.7865120000000001</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" ref="K4:K6" si="0">J4*(54/$D$6)*1000</f>
+        <v>5.3908447943351385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5.4074999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1.9090119999999999</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="0"/>
+        <v>2.1500389850737469</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5.383</v>
       </c>
@@ -453,14 +673,132 @@
         <f>C6/20.99</f>
         <v>0.46370276205858774</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="8">
+        <v>5.210318</v>
+      </c>
+      <c r="K6" s="4">
+        <f>J6*(54/$D$6)*1000</f>
+        <v>5.8681594587312578</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D7">
         <f>D6/1000*365</f>
         <v>17500.439192598824</v>
       </c>
     </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="12">
+        <v>117.2</v>
+      </c>
+      <c r="H11" s="12">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="I11" s="12">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="J11" s="12">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="12">
+        <v>20.6</v>
+      </c>
+      <c r="H12" s="12">
+        <v>24.76</v>
+      </c>
+      <c r="I12" s="12">
+        <v>288</v>
+      </c>
+      <c r="J12" s="12">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="12">
+        <v>13.41</v>
+      </c>
+      <c r="H13" s="12">
+        <v>7.17</v>
+      </c>
+      <c r="I13" s="12">
+        <v>3.12</v>
+      </c>
+      <c r="J13" s="12">
+        <v>20.77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="12">
+        <v>1.9</v>
+      </c>
+      <c r="H14" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="I14" s="12">
+        <v>5.21</v>
+      </c>
+      <c r="J14" s="12">
+        <v>4.78</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/15N_experiment/15N_branches/applied_15N_per_length_and_by_surface.xlsx
+++ b/15N_experiment/15N_branches/applied_15N_per_length_and_by_surface.xlsx
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>15N application on branches: numbers</t>
-  </si>
-  <si>
-    <t>15N-NH4NO3</t>
   </si>
   <si>
     <t>total 15N in mg</t>
@@ -136,13 +133,16 @@
       <t>N rec (%)</t>
     </r>
   </si>
+  <si>
+    <t>15N-NH4NO3 (mg)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -272,12 +272,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,7 +562,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:J14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,28 +581,28 @@
     </row>
     <row r="2" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -617,7 +617,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J3" s="7">
         <v>1.4172549999999999</v>
@@ -632,13 +632,13 @@
         <v>5.4953000000000003</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J4" s="8">
         <v>4.7865120000000001</v>
       </c>
       <c r="K4" s="4">
-        <f t="shared" ref="K4:K6" si="0">J4*(54/$D$6)*1000</f>
+        <f t="shared" ref="K4:K5" si="0">J4*(54/$D$6)*1000</f>
         <v>5.3908447943351385</v>
       </c>
     </row>
@@ -647,7 +647,7 @@
         <v>5.4074999999999998</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5" s="7">
         <v>1.9090119999999999</v>
@@ -670,11 +670,11 @@
         <v>47946.408746846093</v>
       </c>
       <c r="E6" s="1">
-        <f>C6/20.99</f>
-        <v>0.46370276205858774</v>
+        <f>C6/(20.99*100)</f>
+        <v>4.6370276205858771E-3</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J6" s="8">
         <v>5.210318</v>
@@ -691,106 +691,106 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="10"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>17</v>
-      </c>
       <c r="I10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="12">
+        <v>17</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="11">
         <v>117.2</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <v>74.900000000000006</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <v>18.100000000000001</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="11">
         <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <v>20.6</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <v>24.76</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="11">
         <v>288</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="11">
         <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="12">
+        <v>17</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="11">
         <v>13.41</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <v>7.17</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <v>3.12</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="11">
         <v>20.77</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="12">
+        <v>18</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="11">
         <v>1.9</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="11">
         <v>1.4</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="11">
         <v>5.21</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="11">
         <v>4.78</v>
       </c>
     </row>

--- a/15N_experiment/15N_branches/applied_15N_per_length_and_by_surface.xlsx
+++ b/15N_experiment/15N_branches/applied_15N_per_length_and_by_surface.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>1st application</t>
   </si>
@@ -42,27 +42,6 @@
   </si>
   <si>
     <t>per cm (total length = 20.99 m)</t>
-  </si>
-  <si>
-    <t>compartment</t>
-  </si>
-  <si>
-    <t>N15.rec</t>
-  </si>
-  <si>
-    <t>nl</t>
-  </si>
-  <si>
-    <t>nt</t>
-  </si>
-  <si>
-    <t>ol</t>
-  </si>
-  <si>
-    <t>ot</t>
-  </si>
-  <si>
-    <t>richardizzato</t>
   </si>
   <si>
     <t>Needles</t>
@@ -144,7 +123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,19 +148,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF555555"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -195,50 +161,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDFDFD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCFD4D8"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCFD4D8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCFD4D8"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -247,32 +181,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -559,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G12" sqref="G12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,14 +490,14 @@
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -595,17 +511,8 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10.861000000000001</v>
       </c>
@@ -616,48 +523,18 @@
       <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="7">
-        <v>1.4172549999999999</v>
-      </c>
-      <c r="K3" s="4">
-        <f>J3*(54/$D$6)*1000</f>
-        <v>1.5961940007662041</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5.4953000000000003</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="8">
-        <v>4.7865120000000001</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" ref="K4:K5" si="0">J4*(54/$D$6)*1000</f>
-        <v>5.3908447943351385</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.4074999999999998</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="7">
-        <v>1.9090119999999999</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="0"/>
-        <v>2.1500389850737469</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5.383</v>
       </c>
@@ -673,124 +550,114 @@
         <f>C6/(20.99*100)</f>
         <v>4.6370276205858771E-3</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="8">
-        <v>5.210318</v>
-      </c>
-      <c r="K6" s="4">
-        <f>J6*(54/$D$6)*1000</f>
-        <v>5.8681594587312578</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7">
         <f>D6/1000*365</f>
         <v>17500.439192598824</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G9" s="12" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5">
+        <v>117.2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="I11" s="5">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="J11" s="5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5">
+        <v>20.6</v>
+      </c>
+      <c r="H12" s="5">
+        <v>24.76</v>
+      </c>
+      <c r="I12" s="5">
+        <v>288</v>
+      </c>
+      <c r="J12" s="5">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="11">
-        <v>117.2</v>
-      </c>
-      <c r="H11" s="11">
-        <v>74.900000000000006</v>
-      </c>
-      <c r="I11" s="11">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="J11" s="11">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="11">
-        <v>20.6</v>
-      </c>
-      <c r="H12" s="11">
-        <v>24.76</v>
-      </c>
-      <c r="I12" s="11">
-        <v>288</v>
-      </c>
-      <c r="J12" s="11">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="G13" s="5">
         <v>13.41</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="5">
         <v>7.17</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="5">
         <v>3.12</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="5">
         <v>20.77</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="11">
+        <v>11</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="5">
         <v>1.9</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="5">
         <v>1.4</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="5">
         <v>5.21</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="5">
         <v>4.78</v>
       </c>
     </row>
